--- a/data/pca/factorExposure/factorExposure_2015-08-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02292268490207642</v>
+        <v>0.01641828072572947</v>
       </c>
       <c r="C2">
-        <v>0.0287606084300341</v>
+        <v>0.04734151532327138</v>
       </c>
       <c r="D2">
-        <v>-0.1331854894142868</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1391429945658549</v>
+      </c>
+      <c r="E2">
+        <v>0.002707367754411347</v>
+      </c>
+      <c r="F2">
+        <v>-0.00190627009748338</v>
+      </c>
+      <c r="G2">
+        <v>0.109504761478513</v>
+      </c>
+      <c r="H2">
+        <v>0.04006010142761565</v>
+      </c>
+      <c r="I2">
+        <v>0.06162957680114501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.01565128543023279</v>
+        <v>-0.01688758680594131</v>
       </c>
       <c r="C3">
-        <v>0.03940316168597992</v>
+        <v>0.02269344377693701</v>
       </c>
       <c r="D3">
-        <v>-0.0212778714935299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.02005062712956659</v>
+      </c>
+      <c r="E3">
+        <v>0.03403659955994719</v>
+      </c>
+      <c r="F3">
+        <v>0.005807248695785783</v>
+      </c>
+      <c r="G3">
+        <v>0.07775405817126176</v>
+      </c>
+      <c r="H3">
+        <v>0.01089419890054025</v>
+      </c>
+      <c r="I3">
+        <v>-0.08174711025919691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03438936778278395</v>
+        <v>0.0249148838384817</v>
       </c>
       <c r="C4">
-        <v>0.06938737478382061</v>
+        <v>0.08920796372507499</v>
       </c>
       <c r="D4">
-        <v>-0.1412681056763593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1520892917813416</v>
+      </c>
+      <c r="E4">
+        <v>0.01956061625715413</v>
+      </c>
+      <c r="F4">
+        <v>0.08407004008631354</v>
+      </c>
+      <c r="G4">
+        <v>-0.003154295414824159</v>
+      </c>
+      <c r="H4">
+        <v>0.04456635938906075</v>
+      </c>
+      <c r="I4">
+        <v>0.01581384467366086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02421383529661842</v>
+        <v>0.02576307134212328</v>
       </c>
       <c r="C6">
-        <v>0.01437732932626518</v>
+        <v>0.02941075579751682</v>
       </c>
       <c r="D6">
-        <v>-0.1488082734882795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1293799990276437</v>
+      </c>
+      <c r="E6">
+        <v>-0.03463015816151969</v>
+      </c>
+      <c r="F6">
+        <v>0.05198634762599254</v>
+      </c>
+      <c r="G6">
+        <v>0.04600765831037635</v>
+      </c>
+      <c r="H6">
+        <v>0.02512530808412958</v>
+      </c>
+      <c r="I6">
+        <v>-0.02250954646869822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007430289365264956</v>
+        <v>0.00711754297820452</v>
       </c>
       <c r="C7">
-        <v>0.02579671624198806</v>
+        <v>0.0336403696686973</v>
       </c>
       <c r="D7">
-        <v>-0.1192310143240345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.101405345715433</v>
+      </c>
+      <c r="E7">
+        <v>-0.04319049477874002</v>
+      </c>
+      <c r="F7">
+        <v>0.009221740117320168</v>
+      </c>
+      <c r="G7">
+        <v>0.0340999073465568</v>
+      </c>
+      <c r="H7">
+        <v>0.0595573276697108</v>
+      </c>
+      <c r="I7">
+        <v>-0.04609010614489521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002081257469007832</v>
+        <v>-0.004751719424761517</v>
       </c>
       <c r="C8">
-        <v>0.03245432655590796</v>
+        <v>0.03839211994297401</v>
       </c>
       <c r="D8">
-        <v>-0.08360979531169788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0822167470400112</v>
+      </c>
+      <c r="E8">
+        <v>-0.01207274568578121</v>
+      </c>
+      <c r="F8">
+        <v>0.04725097338887101</v>
+      </c>
+      <c r="G8">
+        <v>0.09472546428754167</v>
+      </c>
+      <c r="H8">
+        <v>-0.01160472430743086</v>
+      </c>
+      <c r="I8">
+        <v>-0.03761620491184269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03035449402617645</v>
+        <v>0.01942385349879209</v>
       </c>
       <c r="C9">
-        <v>0.06447669282458619</v>
+        <v>0.07935049324267894</v>
       </c>
       <c r="D9">
-        <v>-0.1336271967116266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1270224036753678</v>
+      </c>
+      <c r="E9">
+        <v>0.01023004213915902</v>
+      </c>
+      <c r="F9">
+        <v>0.04951542373371657</v>
+      </c>
+      <c r="G9">
+        <v>-0.003269292971040427</v>
+      </c>
+      <c r="H9">
+        <v>0.04939767613769454</v>
+      </c>
+      <c r="I9">
+        <v>0.0003565798299203857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1555676178690998</v>
+        <v>0.2133638707744398</v>
       </c>
       <c r="C10">
-        <v>-0.1659766501037223</v>
+        <v>-0.1207145220805603</v>
       </c>
       <c r="D10">
-        <v>-0.01895815404448317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.009510607620370809</v>
+      </c>
+      <c r="E10">
+        <v>0.0276144606110923</v>
+      </c>
+      <c r="F10">
+        <v>0.04956198365760722</v>
+      </c>
+      <c r="G10">
+        <v>-0.006675334000761909</v>
+      </c>
+      <c r="H10">
+        <v>-0.05759342685629966</v>
+      </c>
+      <c r="I10">
+        <v>-0.1174826700193041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02171871969038252</v>
+        <v>0.01302131188865923</v>
       </c>
       <c r="C11">
-        <v>0.04375076635933364</v>
+        <v>0.05255523639540191</v>
       </c>
       <c r="D11">
-        <v>-0.05618281576903714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04968541672241578</v>
+      </c>
+      <c r="E11">
+        <v>-0.0187136032981506</v>
+      </c>
+      <c r="F11">
+        <v>-0.01336337630494651</v>
+      </c>
+      <c r="G11">
+        <v>0.01081213511568244</v>
+      </c>
+      <c r="H11">
+        <v>0.04340325007973435</v>
+      </c>
+      <c r="I11">
+        <v>0.00726274088541875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02320196704933725</v>
+        <v>0.01376642389616438</v>
       </c>
       <c r="C12">
-        <v>0.04222558058161987</v>
+        <v>0.04891387410938932</v>
       </c>
       <c r="D12">
-        <v>-0.06937805086504216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05229230417501041</v>
+      </c>
+      <c r="E12">
+        <v>-0.01535514536710789</v>
+      </c>
+      <c r="F12">
+        <v>-0.01547428530830664</v>
+      </c>
+      <c r="G12">
+        <v>0.006984072973210418</v>
+      </c>
+      <c r="H12">
+        <v>0.07213530516489416</v>
+      </c>
+      <c r="I12">
+        <v>-0.002085093802991568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.002348929665693087</v>
+        <v>0.004694272117879253</v>
       </c>
       <c r="C13">
-        <v>0.02757754080631106</v>
+        <v>0.04246190397174275</v>
       </c>
       <c r="D13">
-        <v>-0.1540555671544883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1572863853303808</v>
+      </c>
+      <c r="E13">
+        <v>-0.04021300191658142</v>
+      </c>
+      <c r="F13">
+        <v>0.03981664965865057</v>
+      </c>
+      <c r="G13">
+        <v>0.05639428688392915</v>
+      </c>
+      <c r="H13">
+        <v>0.05498603941708206</v>
+      </c>
+      <c r="I13">
+        <v>-0.06743650459712158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.002516817865889274</v>
+        <v>-4.035193797275468e-05</v>
       </c>
       <c r="C14">
-        <v>0.02250660750338546</v>
+        <v>0.02799714760224439</v>
       </c>
       <c r="D14">
-        <v>-0.1096062148208722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1045506364179439</v>
+      </c>
+      <c r="E14">
+        <v>-0.01863215797614647</v>
+      </c>
+      <c r="F14">
+        <v>0.01772884726811804</v>
+      </c>
+      <c r="G14">
+        <v>0.06602634887105682</v>
+      </c>
+      <c r="H14">
+        <v>0.09894903910399265</v>
+      </c>
+      <c r="I14">
+        <v>-0.01227975486040801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002780190356195365</v>
+        <v>9.871115416134775e-06</v>
       </c>
       <c r="C15">
-        <v>0.01116100673374192</v>
+        <v>0.01670208242283653</v>
       </c>
       <c r="D15">
-        <v>-0.02352254920360499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04847936506001003</v>
+      </c>
+      <c r="E15">
+        <v>-0.00434523108411235</v>
+      </c>
+      <c r="F15">
+        <v>0.001936279979087555</v>
+      </c>
+      <c r="G15">
+        <v>0.02294212849392551</v>
+      </c>
+      <c r="H15">
+        <v>0.01158083765970719</v>
+      </c>
+      <c r="I15">
+        <v>0.02113239186948628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0193934011821769</v>
+        <v>0.0126402158268013</v>
       </c>
       <c r="C16">
-        <v>0.04000452328468471</v>
+        <v>0.046992610720763</v>
       </c>
       <c r="D16">
-        <v>-0.06437561591305929</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05074252830433844</v>
+      </c>
+      <c r="E16">
+        <v>-0.01908773748215402</v>
+      </c>
+      <c r="F16">
+        <v>-0.00693651011135834</v>
+      </c>
+      <c r="G16">
+        <v>0.003538905612075334</v>
+      </c>
+      <c r="H16">
+        <v>0.05120685300400164</v>
+      </c>
+      <c r="I16">
+        <v>0.005645132541452044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.002475539137569214</v>
+        <v>-0.000855606655662173</v>
       </c>
       <c r="C19">
-        <v>0.02376788245727308</v>
+        <v>0.02014619991727971</v>
       </c>
       <c r="D19">
-        <v>-0.1413543781536356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09353031501092404</v>
+      </c>
+      <c r="E19">
+        <v>0.02211583598018838</v>
+      </c>
+      <c r="F19">
+        <v>0.008328609952843409</v>
+      </c>
+      <c r="G19">
+        <v>0.03639416693832987</v>
+      </c>
+      <c r="H19">
+        <v>0.06504206047801252</v>
+      </c>
+      <c r="I19">
+        <v>-0.03434206015022932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.003440178161607493</v>
+        <v>0.003928068751787625</v>
       </c>
       <c r="C20">
-        <v>0.03204314988089263</v>
+        <v>0.03984645358186299</v>
       </c>
       <c r="D20">
-        <v>-0.09638880169701677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1026992782274872</v>
+      </c>
+      <c r="E20">
+        <v>0.001901032061425959</v>
+      </c>
+      <c r="F20">
+        <v>0.02973496214637773</v>
+      </c>
+      <c r="G20">
+        <v>0.03861086659133712</v>
+      </c>
+      <c r="H20">
+        <v>0.05912473486828056</v>
+      </c>
+      <c r="I20">
+        <v>-0.0247926972791313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.00364718636377513</v>
+        <v>0.0001075681327500333</v>
       </c>
       <c r="C21">
-        <v>0.03596787450446723</v>
+        <v>0.04331860377445619</v>
       </c>
       <c r="D21">
-        <v>-0.1746592898935638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1465730298081235</v>
+      </c>
+      <c r="E21">
+        <v>0.01607447870769737</v>
+      </c>
+      <c r="F21">
+        <v>0.06063815713542554</v>
+      </c>
+      <c r="G21">
+        <v>0.07603684283655798</v>
+      </c>
+      <c r="H21">
+        <v>0.1470830051667283</v>
+      </c>
+      <c r="I21">
+        <v>-0.0770256628264224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.002363187287502353</v>
+        <v>-0.003405606357119723</v>
       </c>
       <c r="C22">
-        <v>0.05611659816468818</v>
+        <v>0.06888133509966232</v>
       </c>
       <c r="D22">
-        <v>-0.1916429492366304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2371346595622213</v>
+      </c>
+      <c r="E22">
+        <v>-0.04650523345871525</v>
+      </c>
+      <c r="F22">
+        <v>0.02698070373939329</v>
+      </c>
+      <c r="G22">
+        <v>0.1627930081219171</v>
+      </c>
+      <c r="H22">
+        <v>-0.4722693816639533</v>
+      </c>
+      <c r="I22">
+        <v>0.2189545361402346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.002157516951175437</v>
+        <v>-0.002984950189774637</v>
       </c>
       <c r="C23">
-        <v>0.05655007808074022</v>
+        <v>0.06980321051611908</v>
       </c>
       <c r="D23">
-        <v>-0.1911881066632408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2378431226732413</v>
+      </c>
+      <c r="E23">
+        <v>-0.04362359364603553</v>
+      </c>
+      <c r="F23">
+        <v>0.02601230570517038</v>
+      </c>
+      <c r="G23">
+        <v>0.1613230529979816</v>
+      </c>
+      <c r="H23">
+        <v>-0.4722701515133905</v>
+      </c>
+      <c r="I23">
+        <v>0.2204147268898251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02628281343562954</v>
+        <v>0.01427578848332961</v>
       </c>
       <c r="C24">
-        <v>0.05827948318944456</v>
+        <v>0.0639339384724735</v>
       </c>
       <c r="D24">
-        <v>-0.07526675482687988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05967866148182129</v>
+      </c>
+      <c r="E24">
+        <v>-0.02044878074790754</v>
+      </c>
+      <c r="F24">
+        <v>-0.005552508424206348</v>
+      </c>
+      <c r="G24">
+        <v>0.01689880888535353</v>
+      </c>
+      <c r="H24">
+        <v>0.07528910854452144</v>
+      </c>
+      <c r="I24">
+        <v>0.0072685985072701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03050970082262718</v>
+        <v>0.01853007946368285</v>
       </c>
       <c r="C25">
-        <v>0.04966064057182176</v>
+        <v>0.05984436019187948</v>
       </c>
       <c r="D25">
-        <v>-0.07041057491363592</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05832613325006111</v>
+      </c>
+      <c r="E25">
+        <v>-0.008165644628962682</v>
+      </c>
+      <c r="F25">
+        <v>-0.008268523283606931</v>
+      </c>
+      <c r="G25">
+        <v>0.004650294831046503</v>
+      </c>
+      <c r="H25">
+        <v>0.04634687373952553</v>
+      </c>
+      <c r="I25">
+        <v>0.001163787655800644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.00545058714449659</v>
+        <v>0.006218859368668105</v>
       </c>
       <c r="C26">
-        <v>0.01593668945229269</v>
+        <v>0.02392655305188734</v>
       </c>
       <c r="D26">
-        <v>-0.07902207867588074</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0731167837902027</v>
+      </c>
+      <c r="E26">
+        <v>-0.0197340449502399</v>
+      </c>
+      <c r="F26">
+        <v>0.02249618889109597</v>
+      </c>
+      <c r="G26">
+        <v>0.03563343508894874</v>
+      </c>
+      <c r="H26">
+        <v>0.06776322951001618</v>
+      </c>
+      <c r="I26">
+        <v>-0.04316097699853267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.239161783793431</v>
+        <v>0.3100493404246857</v>
       </c>
       <c r="C28">
-        <v>-0.2129042414548149</v>
+        <v>-0.1399254736600355</v>
       </c>
       <c r="D28">
-        <v>-0.02166930472727679</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.002424383063026681</v>
+      </c>
+      <c r="E28">
+        <v>0.04904733906990971</v>
+      </c>
+      <c r="F28">
+        <v>0.03879364622135031</v>
+      </c>
+      <c r="G28">
+        <v>-0.02147335878935126</v>
+      </c>
+      <c r="H28">
+        <v>-0.02534746788226756</v>
+      </c>
+      <c r="I28">
+        <v>-0.08577088326806966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.00234327512855216</v>
+        <v>0.0002740812933297779</v>
       </c>
       <c r="C29">
-        <v>0.02098705698976922</v>
+        <v>0.02771175967796495</v>
       </c>
       <c r="D29">
-        <v>-0.1019136929397267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1014494871371111</v>
+      </c>
+      <c r="E29">
+        <v>-0.03270818894692782</v>
+      </c>
+      <c r="F29">
+        <v>0.02731177169932428</v>
+      </c>
+      <c r="G29">
+        <v>0.05139239539566827</v>
+      </c>
+      <c r="H29">
+        <v>0.09744488237287895</v>
+      </c>
+      <c r="I29">
+        <v>-0.02156120106506586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01749815159396399</v>
+        <v>0.01671839972957895</v>
       </c>
       <c r="C30">
-        <v>0.05930537545160649</v>
+        <v>0.07715043980741378</v>
       </c>
       <c r="D30">
-        <v>-0.1691736163083871</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1698055449825197</v>
+      </c>
+      <c r="E30">
+        <v>-0.0365052312870782</v>
+      </c>
+      <c r="F30">
+        <v>0.03605613508330195</v>
+      </c>
+      <c r="G30">
+        <v>0.03824411314323795</v>
+      </c>
+      <c r="H30">
+        <v>0.03598214111060595</v>
+      </c>
+      <c r="I30">
+        <v>0.04663452677705583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04199574145182935</v>
+        <v>0.01757751647241459</v>
       </c>
       <c r="C31">
-        <v>0.08415699235782741</v>
+        <v>0.08896608870984449</v>
       </c>
       <c r="D31">
-        <v>-0.0817394305517808</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04660102520295181</v>
+      </c>
+      <c r="E31">
+        <v>-0.008498361114513497</v>
+      </c>
+      <c r="F31">
+        <v>0.01695915400478901</v>
+      </c>
+      <c r="G31">
+        <v>0.0244600288818341</v>
+      </c>
+      <c r="H31">
+        <v>0.03970839817441824</v>
+      </c>
+      <c r="I31">
+        <v>-0.05454395317062281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02224158451742757</v>
+        <v>0.01690388832465767</v>
       </c>
       <c r="C32">
-        <v>0.03135722052469482</v>
+        <v>0.03842802757063878</v>
       </c>
       <c r="D32">
-        <v>-0.1120552682394304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1152291946841821</v>
+      </c>
+      <c r="E32">
+        <v>-0.002009667794142619</v>
+      </c>
+      <c r="F32">
+        <v>0.04318909229101601</v>
+      </c>
+      <c r="G32">
+        <v>0.0271701862073213</v>
+      </c>
+      <c r="H32">
+        <v>0.01701110415629793</v>
+      </c>
+      <c r="I32">
+        <v>-0.07421566928107275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01511086413695149</v>
+        <v>0.01218927000914841</v>
       </c>
       <c r="C33">
-        <v>0.04168512663893278</v>
+        <v>0.05366771027652205</v>
       </c>
       <c r="D33">
-        <v>-0.1536218442026119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1335708231782675</v>
+      </c>
+      <c r="E33">
+        <v>-0.01309095039998907</v>
+      </c>
+      <c r="F33">
+        <v>0.02293649907943926</v>
+      </c>
+      <c r="G33">
+        <v>0.02913924365656955</v>
+      </c>
+      <c r="H33">
+        <v>0.05577782153443629</v>
+      </c>
+      <c r="I33">
+        <v>-0.009683993797602644</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02615109603048899</v>
+        <v>0.01271785952816527</v>
       </c>
       <c r="C34">
-        <v>0.05845253070964169</v>
+        <v>0.06267285831841506</v>
       </c>
       <c r="D34">
-        <v>-0.05496851256305561</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0378351045789917</v>
+      </c>
+      <c r="E34">
+        <v>-0.02853252130284694</v>
+      </c>
+      <c r="F34">
+        <v>-0.03639993458304801</v>
+      </c>
+      <c r="G34">
+        <v>0.01316815532237692</v>
+      </c>
+      <c r="H34">
+        <v>0.05683755848840991</v>
+      </c>
+      <c r="I34">
+        <v>-0.008917875069232349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001485893121049791</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.003738237823009837</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0143801327032747</v>
+      </c>
+      <c r="E35">
+        <v>-0.00171971555332496</v>
+      </c>
+      <c r="F35">
+        <v>-0.001541444988362616</v>
+      </c>
+      <c r="G35">
+        <v>0.0004969401741487174</v>
+      </c>
+      <c r="H35">
+        <v>0.00711091556166328</v>
+      </c>
+      <c r="I35">
+        <v>0.003092240350886753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01068240550263461</v>
+        <v>0.01251933965163346</v>
       </c>
       <c r="C36">
-        <v>0.004423219402548404</v>
+        <v>0.01763531075918524</v>
       </c>
       <c r="D36">
-        <v>-0.1003433386846524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08770725510453087</v>
+      </c>
+      <c r="E36">
+        <v>-0.005768258160900909</v>
+      </c>
+      <c r="F36">
+        <v>0.03197126403028556</v>
+      </c>
+      <c r="G36">
+        <v>0.02356748393741888</v>
+      </c>
+      <c r="H36">
+        <v>0.0572662806122926</v>
+      </c>
+      <c r="I36">
+        <v>-0.0205194574219997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.009298892069890208</v>
+        <v>0.01753325915484926</v>
       </c>
       <c r="C38">
-        <v>0.0107638012297785</v>
+        <v>0.01718018667785484</v>
       </c>
       <c r="D38">
-        <v>-0.08904096162230417</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08625194098857164</v>
+      </c>
+      <c r="E38">
+        <v>0.01312202509468441</v>
+      </c>
+      <c r="F38">
+        <v>-0.01290051284668557</v>
+      </c>
+      <c r="G38">
+        <v>0.03861278712670363</v>
+      </c>
+      <c r="H38">
+        <v>0.04363021117374647</v>
+      </c>
+      <c r="I38">
+        <v>-0.01166383987455382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02468880428914335</v>
+        <v>0.01374280930822808</v>
       </c>
       <c r="C39">
-        <v>0.05612599501198117</v>
+        <v>0.0739567447973698</v>
       </c>
       <c r="D39">
-        <v>-0.1066227347775121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1025862510464195</v>
+      </c>
+      <c r="E39">
+        <v>-0.04592643098168267</v>
+      </c>
+      <c r="F39">
+        <v>-0.01476457861414488</v>
+      </c>
+      <c r="G39">
+        <v>0.01698298355360738</v>
+      </c>
+      <c r="H39">
+        <v>0.093964709405157</v>
+      </c>
+      <c r="I39">
+        <v>0.05233298806950767</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01213486952842263</v>
+        <v>0.007804601925693521</v>
       </c>
       <c r="C40">
-        <v>0.04041489880264133</v>
+        <v>0.04001161956574346</v>
       </c>
       <c r="D40">
-        <v>-0.1195721603932556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1008921619635381</v>
+      </c>
+      <c r="E40">
+        <v>-0.01827317569336764</v>
+      </c>
+      <c r="F40">
+        <v>0.01865438289901427</v>
+      </c>
+      <c r="G40">
+        <v>0.2459698631901971</v>
+      </c>
+      <c r="H40">
+        <v>0.01646402144723556</v>
+      </c>
+      <c r="I40">
+        <v>-0.153367420136747</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01753921037311251</v>
+        <v>0.01646900774681749</v>
       </c>
       <c r="C41">
-        <v>0.004699670607896631</v>
+        <v>0.01397214764684316</v>
       </c>
       <c r="D41">
-        <v>-0.07706916824382201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05214488138623954</v>
+      </c>
+      <c r="E41">
+        <v>0.01722264566514808</v>
+      </c>
+      <c r="F41">
+        <v>0.01425611562807409</v>
+      </c>
+      <c r="G41">
+        <v>0.02807826067921176</v>
+      </c>
+      <c r="H41">
+        <v>0.02672721287548281</v>
+      </c>
+      <c r="I41">
+        <v>-0.03960276904816324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01095830217258783</v>
+        <v>0.009804517060653349</v>
       </c>
       <c r="C43">
-        <v>0.009091883239817746</v>
+        <v>0.01587922149652694</v>
       </c>
       <c r="D43">
-        <v>-0.09119392259811099</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.06530585528406697</v>
+      </c>
+      <c r="E43">
+        <v>0.005024887505000511</v>
+      </c>
+      <c r="F43">
+        <v>0.010472673107544</v>
+      </c>
+      <c r="G43">
+        <v>0.03457975067565224</v>
+      </c>
+      <c r="H43">
+        <v>0.05665713762735963</v>
+      </c>
+      <c r="I43">
+        <v>-0.03639197849718376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.004904116302141446</v>
+        <v>0.007355679256875303</v>
       </c>
       <c r="C44">
-        <v>0.0390980120677048</v>
+        <v>0.04466024538207846</v>
       </c>
       <c r="D44">
-        <v>-0.1017334668222114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1131900078350919</v>
+      </c>
+      <c r="E44">
+        <v>-0.003295407122426968</v>
+      </c>
+      <c r="F44">
+        <v>0.02041564403215887</v>
+      </c>
+      <c r="G44">
+        <v>0.03359944939458709</v>
+      </c>
+      <c r="H44">
+        <v>0.0457185752436281</v>
+      </c>
+      <c r="I44">
+        <v>0.02599805023315689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007374632482042168</v>
+        <v>0.001275967322291338</v>
       </c>
       <c r="C46">
-        <v>0.02836452787687696</v>
+        <v>0.03583756173023377</v>
       </c>
       <c r="D46">
-        <v>-0.1094738221434097</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09010487295912945</v>
+      </c>
+      <c r="E46">
+        <v>-0.01671978661675705</v>
+      </c>
+      <c r="F46">
+        <v>0.02172518716907151</v>
+      </c>
+      <c r="G46">
+        <v>0.05104877443073579</v>
+      </c>
+      <c r="H46">
+        <v>0.1107827648111685</v>
+      </c>
+      <c r="I46">
+        <v>-0.03137399935410498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07912125210199274</v>
+        <v>0.04355349946318714</v>
       </c>
       <c r="C47">
-        <v>0.1075593693648509</v>
+        <v>0.1203620611532069</v>
       </c>
       <c r="D47">
-        <v>-0.06321660821199214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02739163091994259</v>
+      </c>
+      <c r="E47">
+        <v>0.008434914300959752</v>
+      </c>
+      <c r="F47">
+        <v>-0.005485786961170324</v>
+      </c>
+      <c r="G47">
+        <v>-0.02268530436945408</v>
+      </c>
+      <c r="H47">
+        <v>0.04049370706317861</v>
+      </c>
+      <c r="I47">
+        <v>-0.1133448873273608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006671162276754446</v>
+        <v>0.006907207348369056</v>
       </c>
       <c r="C48">
-        <v>0.01736947417184791</v>
+        <v>0.02702234409698801</v>
       </c>
       <c r="D48">
-        <v>-0.09592935260191834</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08799083325972518</v>
+      </c>
+      <c r="E48">
+        <v>0.009708309362887649</v>
+      </c>
+      <c r="F48">
+        <v>0.03369391195604778</v>
+      </c>
+      <c r="G48">
+        <v>0.03965149196149906</v>
+      </c>
+      <c r="H48">
+        <v>0.07287661499266948</v>
+      </c>
+      <c r="I48">
+        <v>-0.01922838520748311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0397293514996037</v>
+        <v>0.01910405398831645</v>
       </c>
       <c r="C50">
-        <v>0.06317054930232224</v>
+        <v>0.07293729133293259</v>
       </c>
       <c r="D50">
-        <v>-0.08017049285807799</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05439127755589639</v>
+      </c>
+      <c r="E50">
+        <v>-0.001091638877113101</v>
+      </c>
+      <c r="F50">
+        <v>0.006814034549847971</v>
+      </c>
+      <c r="G50">
+        <v>0.03799377528491299</v>
+      </c>
+      <c r="H50">
+        <v>0.0196893172198837</v>
+      </c>
+      <c r="I50">
+        <v>-0.090340897377906</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.00101735362081417</v>
+        <v>0.002880209308406744</v>
       </c>
       <c r="C51">
-        <v>0.01069343270300013</v>
+        <v>0.01866458882676121</v>
       </c>
       <c r="D51">
-        <v>-0.0699935509194221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07533296928373162</v>
+      </c>
+      <c r="E51">
+        <v>-0.03012023132560239</v>
+      </c>
+      <c r="F51">
+        <v>0.0337163783862245</v>
+      </c>
+      <c r="G51">
+        <v>0.04815187895556902</v>
+      </c>
+      <c r="H51">
+        <v>0.04466272810918087</v>
+      </c>
+      <c r="I51">
+        <v>-0.009687588443821362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1023147142258221</v>
+        <v>0.06621178585437745</v>
       </c>
       <c r="C53">
-        <v>0.1245764280341149</v>
+        <v>0.1511730560132677</v>
       </c>
       <c r="D53">
-        <v>-0.02318964383064671</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.001480815147209785</v>
+      </c>
+      <c r="E53">
+        <v>0.04175633700204421</v>
+      </c>
+      <c r="F53">
+        <v>0.06162095793558795</v>
+      </c>
+      <c r="G53">
+        <v>0.03013869120112371</v>
+      </c>
+      <c r="H53">
+        <v>0.003211387011683805</v>
+      </c>
+      <c r="I53">
+        <v>-0.09951122240901997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01379541621267355</v>
+        <v>0.01049105626221581</v>
       </c>
       <c r="C54">
-        <v>0.02252516653070144</v>
+        <v>0.03534345004930747</v>
       </c>
       <c r="D54">
-        <v>-0.117236856490018</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09427052709099505</v>
+      </c>
+      <c r="E54">
+        <v>-0.01016785501279911</v>
+      </c>
+      <c r="F54">
+        <v>-0.001842744365741841</v>
+      </c>
+      <c r="G54">
+        <v>0.05558705073929304</v>
+      </c>
+      <c r="H54">
+        <v>0.06814490275963495</v>
+      </c>
+      <c r="I54">
+        <v>-0.0598319586646834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09203887172279193</v>
+        <v>0.05459199420890934</v>
       </c>
       <c r="C55">
-        <v>0.1040214860357105</v>
+        <v>0.1253044385301472</v>
       </c>
       <c r="D55">
-        <v>-0.008307197510171746</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01469793893746952</v>
+      </c>
+      <c r="E55">
+        <v>0.004336414271327409</v>
+      </c>
+      <c r="F55">
+        <v>0.02684960902173999</v>
+      </c>
+      <c r="G55">
+        <v>0.03988281260526953</v>
+      </c>
+      <c r="H55">
+        <v>-0.01091545456837009</v>
+      </c>
+      <c r="I55">
+        <v>-0.07759458938739455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1290884892535335</v>
+        <v>0.07898741807150456</v>
       </c>
       <c r="C56">
-        <v>0.1311670523276553</v>
+        <v>0.1730970374210068</v>
       </c>
       <c r="D56">
-        <v>-0.003860695050656292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01587954467430294</v>
+      </c>
+      <c r="E56">
+        <v>0.0347694100729942</v>
+      </c>
+      <c r="F56">
+        <v>0.02404232749336103</v>
+      </c>
+      <c r="G56">
+        <v>0.04716898958188719</v>
+      </c>
+      <c r="H56">
+        <v>-0.02831038053004392</v>
+      </c>
+      <c r="I56">
+        <v>-0.09064735294449085</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02307522161658699</v>
+        <v>-0.0058824126783531</v>
       </c>
       <c r="C58">
-        <v>0.02082541047850944</v>
+        <v>0.04170165764034621</v>
       </c>
       <c r="D58">
-        <v>-0.2149759702275233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.285346507935047</v>
+      </c>
+      <c r="E58">
+        <v>0.03659935569855128</v>
+      </c>
+      <c r="F58">
+        <v>0.09008788675754044</v>
+      </c>
+      <c r="G58">
+        <v>0.07103569597032278</v>
+      </c>
+      <c r="H58">
+        <v>-0.1509621851679589</v>
+      </c>
+      <c r="I58">
+        <v>0.04999049648067055</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1710499785945753</v>
+        <v>0.2316288535527579</v>
       </c>
       <c r="C59">
-        <v>-0.1510173240615151</v>
+        <v>-0.09483709912592304</v>
       </c>
       <c r="D59">
-        <v>-0.04832150382985036</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06366057627711486</v>
+      </c>
+      <c r="E59">
+        <v>0.03707947953158248</v>
+      </c>
+      <c r="F59">
+        <v>0.009812947816266394</v>
+      </c>
+      <c r="G59">
+        <v>-7.515553073619412e-05</v>
+      </c>
+      <c r="H59">
+        <v>-0.01704742485048746</v>
+      </c>
+      <c r="I59">
+        <v>-0.008268718938020182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2021412149412906</v>
+        <v>0.1628240821324843</v>
       </c>
       <c r="C60">
-        <v>0.1031586363404479</v>
+        <v>0.1653164817533254</v>
       </c>
       <c r="D60">
-        <v>-0.1534390537477358</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.08070330990347403</v>
+      </c>
+      <c r="E60">
+        <v>-0.2571363665171889</v>
+      </c>
+      <c r="F60">
+        <v>-0.1550313652914276</v>
+      </c>
+      <c r="G60">
+        <v>-0.2525760671023629</v>
+      </c>
+      <c r="H60">
+        <v>-0.1079069007081787</v>
+      </c>
+      <c r="I60">
+        <v>0.03682199572003367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02928746950907113</v>
+        <v>0.01684416736359665</v>
       </c>
       <c r="C61">
-        <v>0.05883086247293993</v>
+        <v>0.07102511405514825</v>
       </c>
       <c r="D61">
-        <v>-0.1173214366536173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09200405355605908</v>
+      </c>
+      <c r="E61">
+        <v>-0.0346787953839478</v>
+      </c>
+      <c r="F61">
+        <v>-0.0171084019375062</v>
+      </c>
+      <c r="G61">
+        <v>0.005971579022505882</v>
+      </c>
+      <c r="H61">
+        <v>0.0972377809829954</v>
+      </c>
+      <c r="I61">
+        <v>-0.01307751754375347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.00937164894687857</v>
+        <v>0.005522049994854271</v>
       </c>
       <c r="C63">
-        <v>0.02500697058433876</v>
+        <v>0.03495302584164482</v>
       </c>
       <c r="D63">
-        <v>-0.09598387261519496</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07564320867940096</v>
+      </c>
+      <c r="E63">
+        <v>-0.02073947412021971</v>
+      </c>
+      <c r="F63">
+        <v>0.01916781545945882</v>
+      </c>
+      <c r="G63">
+        <v>0.0312440493671049</v>
+      </c>
+      <c r="H63">
+        <v>0.05288917359011606</v>
+      </c>
+      <c r="I63">
+        <v>-0.009954894818558822</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05368975047046295</v>
+        <v>0.02710784671868635</v>
       </c>
       <c r="C64">
-        <v>0.08424922050830499</v>
+        <v>0.09845977188705911</v>
       </c>
       <c r="D64">
-        <v>-0.06682350155437572</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05126931262878742</v>
+      </c>
+      <c r="E64">
+        <v>-0.0251872582775831</v>
+      </c>
+      <c r="F64">
+        <v>0.03293331299670166</v>
+      </c>
+      <c r="G64">
+        <v>-0.01961608529191264</v>
+      </c>
+      <c r="H64">
+        <v>0.1232293514779807</v>
+      </c>
+      <c r="I64">
+        <v>-0.001209316309821351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02438656729337793</v>
+        <v>0.01992697135241706</v>
       </c>
       <c r="C65">
-        <v>0.01760259419293528</v>
+        <v>0.03662162410710978</v>
       </c>
       <c r="D65">
-        <v>-0.1197555742978164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1076335284567562</v>
+      </c>
+      <c r="E65">
+        <v>-0.03964934807776793</v>
+      </c>
+      <c r="F65">
+        <v>0.008677835536798607</v>
+      </c>
+      <c r="G65">
+        <v>0.01029225244078417</v>
+      </c>
+      <c r="H65">
+        <v>0.01480652032166077</v>
+      </c>
+      <c r="I65">
+        <v>-0.01368018480994761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02489705344065632</v>
+        <v>0.01289798544483801</v>
       </c>
       <c r="C66">
-        <v>0.06417752245956365</v>
+        <v>0.08598573935105391</v>
       </c>
       <c r="D66">
-        <v>-0.1208775260512216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1316617123427762</v>
+      </c>
+      <c r="E66">
+        <v>-0.03713989354428043</v>
+      </c>
+      <c r="F66">
+        <v>-0.02046422677858356</v>
+      </c>
+      <c r="G66">
+        <v>0.01187585174524569</v>
+      </c>
+      <c r="H66">
+        <v>0.05528545811043491</v>
+      </c>
+      <c r="I66">
+        <v>0.05598157249839644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02985030234811308</v>
+        <v>0.02938756220658042</v>
       </c>
       <c r="C67">
-        <v>0.02226537772110786</v>
+        <v>0.03026261847055997</v>
       </c>
       <c r="D67">
-        <v>-0.04234665816087964</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03446226390192245</v>
+      </c>
+      <c r="E67">
+        <v>-0.002142396212336481</v>
+      </c>
+      <c r="F67">
+        <v>-0.03219523701673432</v>
+      </c>
+      <c r="G67">
+        <v>0.03091091334043222</v>
+      </c>
+      <c r="H67">
+        <v>0.05571581739065881</v>
+      </c>
+      <c r="I67">
+        <v>-0.003169676837499889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2088930844069139</v>
+        <v>0.2615369840295432</v>
       </c>
       <c r="C68">
-        <v>-0.1656184027993263</v>
+        <v>-0.09678961051641879</v>
       </c>
       <c r="D68">
-        <v>-0.03421118361896185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03285303881099681</v>
+      </c>
+      <c r="E68">
+        <v>0.00324557784628717</v>
+      </c>
+      <c r="F68">
+        <v>0.02648317136375245</v>
+      </c>
+      <c r="G68">
+        <v>0.04863734343971193</v>
+      </c>
+      <c r="H68">
+        <v>-0.04725651361191584</v>
+      </c>
+      <c r="I68">
+        <v>-0.07051499251796108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06146985807590787</v>
+        <v>0.03159060508010077</v>
       </c>
       <c r="C69">
-        <v>0.1146645387026893</v>
+        <v>0.1193750161960632</v>
       </c>
       <c r="D69">
-        <v>-0.08626436325286377</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04392481034256842</v>
+      </c>
+      <c r="E69">
+        <v>-0.008420782804818925</v>
+      </c>
+      <c r="F69">
+        <v>-0.01009766183808499</v>
+      </c>
+      <c r="G69">
+        <v>-0.01122712391798813</v>
+      </c>
+      <c r="H69">
+        <v>0.04073350941063551</v>
+      </c>
+      <c r="I69">
+        <v>-0.06512942116854344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2082939770181503</v>
+        <v>0.2596976359947805</v>
       </c>
       <c r="C71">
-        <v>-0.1800770766062338</v>
+        <v>-0.1110216798223547</v>
       </c>
       <c r="D71">
-        <v>-0.04420037254986221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03340109871733728</v>
+      </c>
+      <c r="E71">
+        <v>0.01063204254530307</v>
+      </c>
+      <c r="F71">
+        <v>0.02661582305595848</v>
+      </c>
+      <c r="G71">
+        <v>0.05447892735975007</v>
+      </c>
+      <c r="H71">
+        <v>-0.006084389874866708</v>
+      </c>
+      <c r="I71">
+        <v>-0.1643375911878073</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1027373530936429</v>
+        <v>0.06690340411666705</v>
       </c>
       <c r="C72">
-        <v>0.07562485914032142</v>
+        <v>0.1178571563497591</v>
       </c>
       <c r="D72">
-        <v>-0.09517245673015996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07082320944812212</v>
+      </c>
+      <c r="E72">
+        <v>-0.09001762333088635</v>
+      </c>
+      <c r="F72">
+        <v>-0.007267785543974285</v>
+      </c>
+      <c r="G72">
+        <v>0.01035040732017159</v>
+      </c>
+      <c r="H72">
+        <v>0.0557684010922796</v>
+      </c>
+      <c r="I72">
+        <v>0.0180950205952082</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.185367708313684</v>
+        <v>0.1502005051896448</v>
       </c>
       <c r="C73">
-        <v>0.04903607946094073</v>
+        <v>0.1221371266940482</v>
       </c>
       <c r="D73">
-        <v>-0.1912939237785256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07154427122810648</v>
+      </c>
+      <c r="E73">
+        <v>-0.4418133085599033</v>
+      </c>
+      <c r="F73">
+        <v>-0.2319274658136397</v>
+      </c>
+      <c r="G73">
+        <v>-0.4357787240761644</v>
+      </c>
+      <c r="H73">
+        <v>-0.017954716684515</v>
+      </c>
+      <c r="I73">
+        <v>0.03674314370113552</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1022610644646148</v>
+        <v>0.06136631526184365</v>
       </c>
       <c r="C74">
-        <v>0.109359186639146</v>
+        <v>0.1344141152885425</v>
       </c>
       <c r="D74">
-        <v>0.01484577878923165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03073547796167038</v>
+      </c>
+      <c r="E74">
+        <v>0.02070987156113982</v>
+      </c>
+      <c r="F74">
+        <v>0.05597983682408092</v>
+      </c>
+      <c r="G74">
+        <v>0.004182419826811236</v>
+      </c>
+      <c r="H74">
+        <v>-0.01802778919356264</v>
+      </c>
+      <c r="I74">
+        <v>-0.09496372055225245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2385068152246203</v>
+        <v>0.1526421273201621</v>
       </c>
       <c r="C75">
-        <v>0.1932379459909893</v>
+        <v>0.2543533522884558</v>
       </c>
       <c r="D75">
-        <v>0.1008272112813119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1256870835343068</v>
+      </c>
+      <c r="E75">
+        <v>0.08373863299118083</v>
+      </c>
+      <c r="F75">
+        <v>-0.02793990086619328</v>
+      </c>
+      <c r="G75">
+        <v>0.0621046349895461</v>
+      </c>
+      <c r="H75">
+        <v>-0.02314433728513701</v>
+      </c>
+      <c r="I75">
+        <v>-0.06932803418330752</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1389553252455381</v>
+        <v>0.08366997663729499</v>
       </c>
       <c r="C76">
-        <v>0.1397758440812441</v>
+        <v>0.1749978870930691</v>
       </c>
       <c r="D76">
-        <v>-0.01877376915533518</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01557665367162111</v>
+      </c>
+      <c r="E76">
+        <v>0.0377882145280804</v>
+      </c>
+      <c r="F76">
+        <v>0.01384962269233875</v>
+      </c>
+      <c r="G76">
+        <v>0.05932096626068927</v>
+      </c>
+      <c r="H76">
+        <v>0.0104780032198322</v>
+      </c>
+      <c r="I76">
+        <v>-0.09679255825466004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02508750141982882</v>
+        <v>0.03450767659097535</v>
       </c>
       <c r="C77">
-        <v>0.08412902425552661</v>
+        <v>0.09730521045420813</v>
       </c>
       <c r="D77">
-        <v>-0.06473995911408377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2429245030452049</v>
+      </c>
+      <c r="E77">
+        <v>0.7019429974174376</v>
+      </c>
+      <c r="F77">
+        <v>-0.3821187690484949</v>
+      </c>
+      <c r="G77">
+        <v>-0.3648547593780438</v>
+      </c>
+      <c r="H77">
+        <v>-0.2075588179641349</v>
+      </c>
+      <c r="I77">
+        <v>-0.12171862416131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02305885927674476</v>
+        <v>0.01983830232358504</v>
       </c>
       <c r="C78">
-        <v>0.06998981238595002</v>
+        <v>0.08168655106506915</v>
       </c>
       <c r="D78">
-        <v>-0.1610856427790034</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1432377268489289</v>
+      </c>
+      <c r="E78">
+        <v>-0.04509522342595804</v>
+      </c>
+      <c r="F78">
+        <v>0.03841796551418467</v>
+      </c>
+      <c r="G78">
+        <v>0.01690825897084537</v>
+      </c>
+      <c r="H78">
+        <v>0.01800416601823496</v>
+      </c>
+      <c r="I78">
+        <v>0.02346645781780689</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.0741607198725832</v>
+        <v>0.04336563793203944</v>
       </c>
       <c r="C79">
-        <v>0.1455113188378969</v>
+        <v>0.1670359794606428</v>
       </c>
       <c r="D79">
-        <v>0.08200188037103776</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04119377837515346</v>
+      </c>
+      <c r="E79">
+        <v>0.1425471528936069</v>
+      </c>
+      <c r="F79">
+        <v>0.790396439335883</v>
+      </c>
+      <c r="G79">
+        <v>-0.4588738218241338</v>
+      </c>
+      <c r="H79">
+        <v>-0.06061294517763593</v>
+      </c>
+      <c r="I79">
+        <v>0.138145517805889</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007415011388104673</v>
+        <v>0.001776412206704977</v>
       </c>
       <c r="C80">
-        <v>0.05370321553074724</v>
+        <v>0.05291187559949526</v>
       </c>
       <c r="D80">
-        <v>-0.04864393799535411</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04408205717556612</v>
+      </c>
+      <c r="E80">
+        <v>-0.01811348496613377</v>
+      </c>
+      <c r="F80">
+        <v>0.01550501304767747</v>
+      </c>
+      <c r="G80">
+        <v>0.06696019863798565</v>
+      </c>
+      <c r="H80">
+        <v>0.007172484637916411</v>
+      </c>
+      <c r="I80">
+        <v>-0.02983022625011283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1194802467254268</v>
+        <v>0.06538207601005021</v>
       </c>
       <c r="C81">
-        <v>0.1401622269345811</v>
+        <v>0.1648741946008128</v>
       </c>
       <c r="D81">
-        <v>0.06400938573663821</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07488562956721577</v>
+      </c>
+      <c r="E81">
+        <v>0.07595665900476603</v>
+      </c>
+      <c r="F81">
+        <v>0.05178628729051821</v>
+      </c>
+      <c r="G81">
+        <v>0.0818443575301363</v>
+      </c>
+      <c r="H81">
+        <v>0.04206447642548145</v>
+      </c>
+      <c r="I81">
+        <v>-0.116527647967766</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2446364033072232</v>
+        <v>0.1308049700649408</v>
       </c>
       <c r="C82">
-        <v>0.2983897333930325</v>
+        <v>0.3215925561127959</v>
       </c>
       <c r="D82">
-        <v>0.2091935966075536</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.218708170819178</v>
+      </c>
+      <c r="E82">
+        <v>0.04121124357122183</v>
+      </c>
+      <c r="F82">
+        <v>-0.1030689628050679</v>
+      </c>
+      <c r="G82">
+        <v>0.08367871781493472</v>
+      </c>
+      <c r="H82">
+        <v>0.06485208800894776</v>
+      </c>
+      <c r="I82">
+        <v>-0.09629555103994575</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.005811356890960018</v>
+        <v>-0.006713659305421419</v>
       </c>
       <c r="C83">
-        <v>0.06030808669248024</v>
+        <v>0.04943817095434316</v>
       </c>
       <c r="D83">
-        <v>-0.02553517502478649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04364593668327331</v>
+      </c>
+      <c r="E83">
+        <v>0.1028295268050866</v>
+      </c>
+      <c r="F83">
+        <v>-0.01496674597125608</v>
+      </c>
+      <c r="G83">
+        <v>0.05593932756570175</v>
+      </c>
+      <c r="H83">
+        <v>0.05070938668404499</v>
+      </c>
+      <c r="I83">
+        <v>0.1263533222114668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001025428569731533</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01285044331153844</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03630119956771211</v>
+      </c>
+      <c r="E84">
+        <v>0.005611579918224771</v>
+      </c>
+      <c r="F84">
+        <v>0.01846760047342036</v>
+      </c>
+      <c r="G84">
+        <v>0.0365642502100071</v>
+      </c>
+      <c r="H84">
+        <v>-0.01336072405725344</v>
+      </c>
+      <c r="I84">
+        <v>0.02760009829103108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1520792746825734</v>
+        <v>0.08879644513907563</v>
       </c>
       <c r="C85">
-        <v>0.1422523666851307</v>
+        <v>0.1873662821677873</v>
       </c>
       <c r="D85">
-        <v>0.0502484869132807</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08931194058339682</v>
+      </c>
+      <c r="E85">
+        <v>7.894255600774529e-05</v>
+      </c>
+      <c r="F85">
+        <v>0.07425894807606137</v>
+      </c>
+      <c r="G85">
+        <v>0.01952636145449625</v>
+      </c>
+      <c r="H85">
+        <v>-0.00949543267904906</v>
+      </c>
+      <c r="I85">
+        <v>-0.06855175468549624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01353148366051046</v>
+        <v>0.0126268685464967</v>
       </c>
       <c r="C86">
-        <v>0.02613499216027097</v>
+        <v>0.03055670532103697</v>
       </c>
       <c r="D86">
-        <v>-0.09129018536412295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.104237026723297</v>
+      </c>
+      <c r="E86">
+        <v>0.04442868195617754</v>
+      </c>
+      <c r="F86">
+        <v>-0.01800993723062033</v>
+      </c>
+      <c r="G86">
+        <v>0.0153736060898169</v>
+      </c>
+      <c r="H86">
+        <v>0.005150543887320641</v>
+      </c>
+      <c r="I86">
+        <v>-0.1189857637024275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02068761129479901</v>
+        <v>0.02269084152980999</v>
       </c>
       <c r="C87">
-        <v>0.02141882933776318</v>
+        <v>0.04465168431791718</v>
       </c>
       <c r="D87">
-        <v>-0.124254562961647</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1487716169009017</v>
+      </c>
+      <c r="E87">
+        <v>0.01764276387402829</v>
+      </c>
+      <c r="F87">
+        <v>0.03575971512509379</v>
+      </c>
+      <c r="G87">
+        <v>0.06061379630436196</v>
+      </c>
+      <c r="H87">
+        <v>0.01409395584118198</v>
+      </c>
+      <c r="I87">
+        <v>0.08554167604853255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06210226459863557</v>
+        <v>0.0413178224991283</v>
       </c>
       <c r="C88">
-        <v>0.04401390144190094</v>
+        <v>0.06357283406968581</v>
       </c>
       <c r="D88">
-        <v>-0.04653990270823753</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01181887501091806</v>
+      </c>
+      <c r="E88">
+        <v>-0.0217172996135839</v>
+      </c>
+      <c r="F88">
+        <v>0.02331388400555827</v>
+      </c>
+      <c r="G88">
+        <v>-0.007961489918130327</v>
+      </c>
+      <c r="H88">
+        <v>0.02426381817989458</v>
+      </c>
+      <c r="I88">
+        <v>-0.04036644013068435</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3254825696904197</v>
+        <v>0.3990994268491424</v>
       </c>
       <c r="C89">
-        <v>-0.3336273375861624</v>
+        <v>-0.2064961173150371</v>
       </c>
       <c r="D89">
-        <v>-0.0157482097510616</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01357147374163288</v>
+      </c>
+      <c r="E89">
+        <v>0.05073274027549715</v>
+      </c>
+      <c r="F89">
+        <v>0.04456810770949068</v>
+      </c>
+      <c r="G89">
+        <v>0.09264855530572148</v>
+      </c>
+      <c r="H89">
+        <v>0.1513700753492949</v>
+      </c>
+      <c r="I89">
+        <v>0.3801895088254717</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.254189006165671</v>
+        <v>0.3083951089160506</v>
       </c>
       <c r="C90">
-        <v>-0.2455105280969065</v>
+        <v>-0.1439023659693593</v>
       </c>
       <c r="D90">
-        <v>-0.03396975820735744</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03671199449887403</v>
+      </c>
+      <c r="E90">
+        <v>0.01102384768429548</v>
+      </c>
+      <c r="F90">
+        <v>-0.0160236685604297</v>
+      </c>
+      <c r="G90">
+        <v>0.04692571855619745</v>
+      </c>
+      <c r="H90">
+        <v>-0.03638404625415987</v>
+      </c>
+      <c r="I90">
+        <v>-0.0602173295127188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1575721078057784</v>
+        <v>0.09122046217905279</v>
       </c>
       <c r="C91">
-        <v>0.1836624148176693</v>
+        <v>0.2065312618179939</v>
       </c>
       <c r="D91">
-        <v>0.1021018726497772</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1085435720447076</v>
+      </c>
+      <c r="E91">
+        <v>0.07974550803947487</v>
+      </c>
+      <c r="F91">
+        <v>0.07839491957715343</v>
+      </c>
+      <c r="G91">
+        <v>0.02162250962313988</v>
+      </c>
+      <c r="H91">
+        <v>-0.01130951763925104</v>
+      </c>
+      <c r="I91">
+        <v>-0.1161178046910455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2245264441988722</v>
+        <v>0.3108160990211452</v>
       </c>
       <c r="C92">
-        <v>-0.2545744389723852</v>
+        <v>-0.1794603515701454</v>
       </c>
       <c r="D92">
-        <v>0.02493027155488851</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.008194328870484987</v>
+      </c>
+      <c r="E92">
+        <v>0.08233270576508189</v>
+      </c>
+      <c r="F92">
+        <v>0.02836751018811831</v>
+      </c>
+      <c r="G92">
+        <v>0.02701492636587215</v>
+      </c>
+      <c r="H92">
+        <v>0.008985997759296224</v>
+      </c>
+      <c r="I92">
+        <v>0.03576451401694603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.276886232815323</v>
+        <v>0.3243864390602828</v>
       </c>
       <c r="C93">
-        <v>-0.2530818121866591</v>
+        <v>-0.1486699309533627</v>
       </c>
       <c r="D93">
-        <v>-0.0242408733670292</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005589801783985104</v>
+      </c>
+      <c r="E93">
+        <v>-0.03355747791135909</v>
+      </c>
+      <c r="F93">
+        <v>0.01937413482421133</v>
+      </c>
+      <c r="G93">
+        <v>-0.02547970245685571</v>
+      </c>
+      <c r="H93">
+        <v>-0.01532699075050123</v>
+      </c>
+      <c r="I93">
+        <v>-0.1202798416981269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3134923175744062</v>
+        <v>0.1914311941420332</v>
       </c>
       <c r="C94">
-        <v>0.2673873814685733</v>
+        <v>0.3472707554262248</v>
       </c>
       <c r="D94">
-        <v>0.3649809455775045</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3611151974626769</v>
+      </c>
+      <c r="E94">
+        <v>0.04881886410776985</v>
+      </c>
+      <c r="F94">
+        <v>-0.1083677076429339</v>
+      </c>
+      <c r="G94">
+        <v>0.2634725068082033</v>
+      </c>
+      <c r="H94">
+        <v>-0.1403702333223706</v>
+      </c>
+      <c r="I94">
+        <v>0.4031180841632316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02566155022941422</v>
+        <v>0.02486583119875918</v>
       </c>
       <c r="C95">
-        <v>0.03952824251625515</v>
+        <v>0.06128537633530876</v>
       </c>
       <c r="D95">
-        <v>-0.08852397793105049</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1178987565726628</v>
+      </c>
+      <c r="E95">
+        <v>0.2146933081933513</v>
+      </c>
+      <c r="F95">
+        <v>-0.1427567363956943</v>
+      </c>
+      <c r="G95">
+        <v>-0.1222016757958127</v>
+      </c>
+      <c r="H95">
+        <v>0.4629339492813913</v>
+      </c>
+      <c r="I95">
+        <v>0.4983984560927097</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0009095058860611177</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>3.916530652527275e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0009803260610398805</v>
+      </c>
+      <c r="E97">
+        <v>-0.0006061773556782198</v>
+      </c>
+      <c r="F97">
+        <v>-0.001404302920443408</v>
+      </c>
+      <c r="G97">
+        <v>-0.001289731639944597</v>
+      </c>
+      <c r="H97">
+        <v>0.0008313492658786756</v>
+      </c>
+      <c r="I97">
+        <v>0.0001769943315737618</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1497408670330758</v>
+        <v>0.1265854225661145</v>
       </c>
       <c r="C98">
-        <v>0.07099005429277805</v>
+        <v>0.125814941641561</v>
       </c>
       <c r="D98">
-        <v>-0.121011872601694</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06634429692832669</v>
+      </c>
+      <c r="E98">
+        <v>-0.2871558354278366</v>
+      </c>
+      <c r="F98">
+        <v>-0.1438677691040618</v>
+      </c>
+      <c r="G98">
+        <v>-0.2541410413074783</v>
+      </c>
+      <c r="H98">
+        <v>-0.05844766377408588</v>
+      </c>
+      <c r="I98">
+        <v>0.005865196876617352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001924126904389007</v>
+        <v>0.0006511755665818541</v>
       </c>
       <c r="C101">
-        <v>0.02048401327013601</v>
+        <v>0.02714090539550745</v>
       </c>
       <c r="D101">
-        <v>-0.1021902687740915</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1011125224511216</v>
+      </c>
+      <c r="E101">
+        <v>-0.0318776914682694</v>
+      </c>
+      <c r="F101">
+        <v>0.02764794267133023</v>
+      </c>
+      <c r="G101">
+        <v>0.05202753127118213</v>
+      </c>
+      <c r="H101">
+        <v>0.09872427811725228</v>
+      </c>
+      <c r="I101">
+        <v>-0.02120209304373713</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.110071623613282</v>
+        <v>0.05404681240584101</v>
       </c>
       <c r="C102">
-        <v>0.1514306866417096</v>
+        <v>0.1524659543694525</v>
       </c>
       <c r="D102">
-        <v>0.06967590650736444</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.08758722674077088</v>
+      </c>
+      <c r="E102">
+        <v>0.02997469083539325</v>
+      </c>
+      <c r="F102">
+        <v>-0.06218185879109665</v>
+      </c>
+      <c r="G102">
+        <v>0.0005497718076215175</v>
+      </c>
+      <c r="H102">
+        <v>0.05529972691197938</v>
+      </c>
+      <c r="I102">
+        <v>-0.02578605990860279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
